--- a/raw-data/JRL_block1_30_32_4.xlsx
+++ b/raw-data/JRL_block1_30_32_4.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">1394061648</definedName>
-    <definedName name="MethodPointer2">572</definedName>
+    <definedName name="MethodPointer1">-1807967984</definedName>
+    <definedName name="MethodPointer2">552</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_32_4.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_32_5.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -529,13 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBAD7EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF428EC7"/>
+        <fgColor rgb="FFC9E0F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,13 +541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBAD7EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF9CC5E5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9E0F4"/>
+        <fgColor rgb="FF428EC7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,58 +696,58 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45765</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.50055555555555553</v>
+        <v>0.61153935185185182</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1689,40 +1689,40 @@
         <v>38</v>
       </c>
       <c r="C49" s="9">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9">
+        <v>9</v>
+      </c>
+      <c r="E49" s="9">
+        <v>13</v>
+      </c>
+      <c r="F49" s="9">
         <v>10</v>
       </c>
-      <c r="D49" s="9">
+      <c r="G49" s="9">
+        <v>7</v>
+      </c>
+      <c r="H49" s="9">
         <v>11</v>
-      </c>
-      <c r="E49" s="9">
-        <v>14</v>
-      </c>
-      <c r="F49" s="9">
-        <v>12</v>
-      </c>
-      <c r="G49" s="9">
-        <v>11</v>
-      </c>
-      <c r="H49" s="9">
-        <v>17</v>
       </c>
       <c r="I49" s="9">
         <v>11</v>
       </c>
       <c r="J49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K49" s="9">
+        <v>13</v>
+      </c>
+      <c r="L49" s="9">
         <v>15</v>
       </c>
-      <c r="L49" s="9">
-        <v>14</v>
-      </c>
       <c r="M49" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N49" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
@@ -1731,40 +1731,40 @@
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="33"/>
       <c r="C50" s="10">
-        <v>0.95099999999999996</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D50" s="11">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="F50" s="12">
-        <v>0.84</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0.97599999999999998</v>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0.97899999999999998</v>
       </c>
       <c r="H50" s="13">
-        <v>1.0840000000000001</v>
-      </c>
-      <c r="I50" s="10">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="J50" s="12">
-        <v>0.82399999999999995</v>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0.83299999999999996</v>
       </c>
       <c r="K50" s="10">
-        <v>0.95199999999999996</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="L50" s="10">
-        <v>0.93200000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="M50" s="10">
-        <v>0.94099999999999995</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="N50" s="13">
-        <v>1.101</v>
+        <v>1.087</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
@@ -1775,40 +1775,40 @@
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" s="9">
+        <v>9</v>
+      </c>
+      <c r="E51" s="9">
+        <v>23</v>
+      </c>
+      <c r="F51" s="9">
+        <v>46</v>
+      </c>
+      <c r="G51" s="9">
         <v>12</v>
       </c>
-      <c r="E51" s="9">
+      <c r="H51" s="9">
+        <v>23</v>
+      </c>
+      <c r="I51" s="9">
+        <v>216</v>
+      </c>
+      <c r="J51" s="9">
+        <v>12</v>
+      </c>
+      <c r="K51" s="9">
         <v>18</v>
       </c>
-      <c r="F51" s="9">
-        <v>50</v>
-      </c>
-      <c r="G51" s="9">
-        <v>14</v>
-      </c>
-      <c r="H51" s="9">
-        <v>24</v>
-      </c>
-      <c r="I51" s="14">
-        <v>357</v>
-      </c>
-      <c r="J51" s="9">
-        <v>14</v>
-      </c>
-      <c r="K51" s="9">
-        <v>19</v>
-      </c>
       <c r="L51" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M51" s="9">
         <v>13</v>
       </c>
       <c r="N51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>145</v>
@@ -1816,41 +1816,41 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="33"/>
-      <c r="C52" s="11">
-        <v>1.46</v>
+      <c r="C52" s="14">
+        <v>1.47</v>
       </c>
       <c r="D52" s="13">
-        <v>1.113</v>
+        <v>1.121</v>
       </c>
       <c r="E52" s="13">
-        <v>1.073</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0.99099999999999999</v>
+        <v>1.085</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1.0069999999999999</v>
       </c>
       <c r="G52" s="15">
-        <v>1</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="H52" s="13">
-        <v>1.097</v>
-      </c>
-      <c r="I52" s="13">
-        <v>1.077</v>
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="I52" s="15">
+        <v>1.0529999999999999</v>
       </c>
       <c r="J52" s="16">
-        <v>1.1739999999999999</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="K52" s="17">
-        <v>1.194</v>
+        <v>1.19</v>
       </c>
       <c r="L52" s="16">
-        <v>1.121</v>
+        <v>1.151</v>
       </c>
       <c r="M52" s="13">
-        <v>1.0740000000000001</v>
+        <v>1.083</v>
       </c>
       <c r="N52" s="18">
-        <v>1.353</v>
+        <v>1.32</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
@@ -1861,40 +1861,40 @@
         <v>65</v>
       </c>
       <c r="C53" s="9">
+        <v>11</v>
+      </c>
+      <c r="D53" s="9">
+        <v>28</v>
+      </c>
+      <c r="E53" s="9">
+        <v>30</v>
+      </c>
+      <c r="F53" s="19">
+        <v>2632</v>
+      </c>
+      <c r="G53" s="20">
+        <v>3259</v>
+      </c>
+      <c r="H53" s="9">
+        <v>6</v>
+      </c>
+      <c r="I53" s="9">
+        <v>13</v>
+      </c>
+      <c r="J53" s="9">
+        <v>10</v>
+      </c>
+      <c r="K53" s="9">
+        <v>62</v>
+      </c>
+      <c r="L53" s="19">
+        <v>2717</v>
+      </c>
+      <c r="M53" s="9">
+        <v>13</v>
+      </c>
+      <c r="N53" s="9">
         <v>12</v>
-      </c>
-      <c r="D53" s="9">
-        <v>57</v>
-      </c>
-      <c r="E53" s="9">
-        <v>45</v>
-      </c>
-      <c r="F53" s="19">
-        <v>1787</v>
-      </c>
-      <c r="G53" s="19">
-        <v>1702</v>
-      </c>
-      <c r="H53" s="9">
-        <v>17</v>
-      </c>
-      <c r="I53" s="9">
-        <v>15</v>
-      </c>
-      <c r="J53" s="9">
-        <v>18</v>
-      </c>
-      <c r="K53" s="9">
-        <v>61</v>
-      </c>
-      <c r="L53" s="20">
-        <v>1271</v>
-      </c>
-      <c r="M53" s="9">
-        <v>15</v>
-      </c>
-      <c r="N53" s="9">
-        <v>15</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>145</v>
@@ -1903,40 +1903,40 @@
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="33"/>
       <c r="C54" s="21">
-        <v>1.282</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="D54" s="15">
-        <v>1.036</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="E54" s="22">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="F54" s="21">
-        <v>1.272</v>
-      </c>
-      <c r="G54" s="21">
-        <v>1.252</v>
-      </c>
-      <c r="H54" s="13">
-        <v>1.1160000000000001</v>
+        <v>0.78</v>
+      </c>
+      <c r="F54" s="14">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="G54" s="14">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="H54" s="16">
+        <v>1.1359999999999999</v>
       </c>
       <c r="I54" s="17">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K54" s="16">
         <v>1.1850000000000001</v>
       </c>
-      <c r="J54" s="15">
-        <v>0.996</v>
-      </c>
-      <c r="K54" s="16">
-        <v>1.175</v>
-      </c>
-      <c r="L54" s="15">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="M54" s="10">
-        <v>0.95099999999999996</v>
+      <c r="L54" s="16">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="M54" s="12">
+        <v>0.96799999999999997</v>
       </c>
       <c r="N54" s="23">
-        <v>1.5580000000000001</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
@@ -1947,40 +1947,40 @@
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" s="24">
-        <v>153</v>
+        <v>516</v>
       </c>
       <c r="E55" s="9">
+        <v>11</v>
+      </c>
+      <c r="F55" s="25">
+        <v>267</v>
+      </c>
+      <c r="G55" s="9">
+        <v>16</v>
+      </c>
+      <c r="H55" s="9">
+        <v>42</v>
+      </c>
+      <c r="I55" s="9">
         <v>12</v>
       </c>
-      <c r="F55" s="14">
-        <v>286</v>
-      </c>
-      <c r="G55" s="9">
-        <v>20</v>
-      </c>
-      <c r="H55" s="9">
-        <v>90</v>
-      </c>
-      <c r="I55" s="9">
-        <v>14</v>
-      </c>
       <c r="J55" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K55" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L55" s="9">
         <v>12</v>
       </c>
-      <c r="M55" s="25">
-        <v>410</v>
+      <c r="M55" s="26">
+        <v>1238</v>
       </c>
       <c r="N55" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
@@ -1988,41 +1988,41 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="33"/>
-      <c r="C56" s="26">
-        <v>1.409</v>
-      </c>
-      <c r="D56" s="16">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="E56" s="16">
-        <v>1.139</v>
-      </c>
-      <c r="F56" s="21">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="G56" s="13">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="H56" s="17">
-        <v>1.1859999999999999</v>
+      <c r="C56" s="27">
+        <v>1.397</v>
+      </c>
+      <c r="D56" s="17">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="E56" s="17">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="F56" s="27">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="G56" s="16">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="H56" s="18">
+        <v>1.3220000000000001</v>
       </c>
       <c r="I56" s="16">
-        <v>1.159</v>
-      </c>
-      <c r="J56" s="16">
+        <v>1.165</v>
+      </c>
+      <c r="J56" s="17">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="K56" s="12">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="L56" s="13">
+        <v>1.093</v>
+      </c>
+      <c r="M56" s="16">
         <v>1.147</v>
       </c>
-      <c r="K56" s="10">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="L56" s="13">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="M56" s="13">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="N56" s="27">
-        <v>1.6180000000000001</v>
+      <c r="N56" s="28">
+        <v>1.589</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
@@ -2033,40 +2033,40 @@
         <v>91</v>
       </c>
       <c r="C57" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D57" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E57" s="9">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="F57" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G57" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H57" s="9">
-        <v>11</v>
-      </c>
-      <c r="I57" s="28">
-        <v>579</v>
-      </c>
-      <c r="J57" s="19">
-        <v>1794</v>
+        <v>10</v>
+      </c>
+      <c r="I57" s="24">
+        <v>484</v>
+      </c>
+      <c r="J57" s="20">
+        <v>3063</v>
       </c>
       <c r="K57" s="9">
-        <v>22</v>
-      </c>
-      <c r="L57" s="14">
-        <v>382</v>
+        <v>21</v>
+      </c>
+      <c r="L57" s="29">
+        <v>1514</v>
       </c>
       <c r="M57" s="29">
-        <v>753</v>
+        <v>1613</v>
       </c>
       <c r="N57" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
@@ -2075,40 +2075,40 @@
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="33"/>
       <c r="C58" s="21">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D58" s="16">
-        <v>1.123</v>
-      </c>
-      <c r="E58" s="17">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="F58" s="17">
-        <v>1.2130000000000001</v>
-      </c>
-      <c r="G58" s="16">
-        <v>1.151</v>
-      </c>
-      <c r="H58" s="17">
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="I58" s="18">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="J58" s="16">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K58" s="17">
-        <v>1.2310000000000001</v>
-      </c>
-      <c r="L58" s="10">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="M58" s="13">
-        <v>1.081</v>
-      </c>
-      <c r="N58" s="27">
-        <v>1.631</v>
+        <v>1.274</v>
+      </c>
+      <c r="D58" s="21">
+        <v>1.256</v>
+      </c>
+      <c r="E58" s="27">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="F58" s="23">
+        <v>1.532</v>
+      </c>
+      <c r="G58" s="23">
+        <v>1.492</v>
+      </c>
+      <c r="H58" s="18">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="I58" s="14">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="J58" s="14">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="K58" s="21">
+        <v>1.254</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="M58" s="16">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="N58" s="28">
+        <v>1.603</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
@@ -2119,40 +2119,40 @@
         <v>104</v>
       </c>
       <c r="C59" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D59" s="30">
-        <v>1410</v>
+        <v>1857</v>
       </c>
       <c r="E59" s="9">
         <v>9</v>
       </c>
       <c r="F59" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="9">
+        <v>11</v>
+      </c>
+      <c r="H59" s="9">
+        <v>34</v>
+      </c>
+      <c r="I59" s="9">
+        <v>42</v>
+      </c>
+      <c r="J59" s="9">
+        <v>19</v>
+      </c>
+      <c r="K59" s="9">
+        <v>11</v>
+      </c>
+      <c r="L59" s="9">
         <v>12</v>
       </c>
-      <c r="H59" s="9">
-        <v>55</v>
-      </c>
-      <c r="I59" s="9">
-        <v>44</v>
-      </c>
-      <c r="J59" s="9">
-        <v>20</v>
-      </c>
-      <c r="K59" s="9">
-        <v>10</v>
-      </c>
-      <c r="L59" s="9">
-        <v>15</v>
-      </c>
       <c r="M59" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N59" s="9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
@@ -2161,40 +2161,40 @@
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="33"/>
       <c r="C60" s="17">
-        <v>1.224</v>
-      </c>
-      <c r="D60" s="13">
-        <v>1.071</v>
-      </c>
-      <c r="E60" s="16">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="F60" s="16">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="G60" s="21">
-        <v>1.294</v>
-      </c>
-      <c r="H60" s="15">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="I60" s="17">
-        <v>1.212</v>
-      </c>
-      <c r="J60" s="16">
-        <v>1.167</v>
+        <v>1.214</v>
+      </c>
+      <c r="D60" s="17">
+        <v>1.202</v>
+      </c>
+      <c r="E60" s="18">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="F60" s="27">
+        <v>1.391</v>
+      </c>
+      <c r="G60" s="14">
+        <v>1.464</v>
+      </c>
+      <c r="H60" s="14">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="I60" s="14">
+        <v>1.454</v>
+      </c>
+      <c r="J60" s="17">
+        <v>1.2430000000000001</v>
       </c>
       <c r="K60" s="15">
-        <v>0.998</v>
+        <v>1.036</v>
       </c>
       <c r="L60" s="10">
-        <v>0.96199999999999997</v>
+        <v>0.94</v>
       </c>
       <c r="M60" s="10">
-        <v>0.96399999999999997</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="N60" s="23">
-        <v>1.528</v>
+        <v>1.536</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
@@ -2208,37 +2208,37 @@
         <v>12</v>
       </c>
       <c r="D61" s="9">
-        <v>40</v>
-      </c>
-      <c r="E61" s="20">
-        <v>1253</v>
+        <v>27</v>
+      </c>
+      <c r="E61" s="31">
+        <v>2195</v>
       </c>
       <c r="F61" s="9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G61" s="9">
-        <v>11</v>
-      </c>
-      <c r="H61" s="29">
-        <v>698</v>
+        <v>10</v>
+      </c>
+      <c r="H61" s="24">
+        <v>593</v>
       </c>
       <c r="I61" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J61" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K61" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L61" s="9">
         <v>11</v>
       </c>
       <c r="M61" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N61" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
@@ -2246,41 +2246,41 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="33"/>
-      <c r="C62" s="26">
-        <v>1.38</v>
-      </c>
-      <c r="D62" s="13">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="E62" s="17">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="F62" s="16">
-        <v>1.153</v>
-      </c>
-      <c r="G62" s="16">
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="H62" s="17">
-        <v>1.202</v>
-      </c>
-      <c r="I62" s="15">
-        <v>1.0409999999999999</v>
-      </c>
-      <c r="J62" s="31">
-        <v>0.92300000000000004</v>
+      <c r="C62" s="27">
+        <v>1.377</v>
+      </c>
+      <c r="D62" s="17">
+        <v>1.19</v>
+      </c>
+      <c r="E62" s="23">
+        <v>1.518</v>
+      </c>
+      <c r="F62" s="18">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="G62" s="21">
+        <v>1.304</v>
+      </c>
+      <c r="H62" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="I62" s="17">
+        <v>1.238</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0.97899999999999998</v>
       </c>
       <c r="K62" s="16">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="L62" s="31">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="M62" s="15">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="N62" s="16">
-        <v>1.173</v>
+        <v>1.137</v>
+      </c>
+      <c r="L62" s="10">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="M62" s="12">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N62" s="17">
+        <v>1.19</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
@@ -2291,40 +2291,40 @@
         <v>130</v>
       </c>
       <c r="C63" s="9">
+        <v>12</v>
+      </c>
+      <c r="D63" s="9">
         <v>11</v>
       </c>
-      <c r="D63" s="9">
-        <v>15</v>
-      </c>
       <c r="E63" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F63" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G63" s="9">
         <v>11</v>
       </c>
       <c r="H63" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I63" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J63" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K63" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L63" s="9">
         <v>11</v>
       </c>
       <c r="M63" s="9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N63" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
@@ -2332,41 +2332,41 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
-      <c r="C64" s="15">
-        <v>1.0029999999999999</v>
+      <c r="C64" s="12">
+        <v>0.997</v>
       </c>
       <c r="D64" s="15">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="E64" s="15">
-        <v>1.018</v>
-      </c>
-      <c r="F64" s="13">
-        <v>1.085</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="H64" s="13">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="I64" s="15">
-        <v>1.034</v>
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="E64" s="16">
+        <v>1.167</v>
+      </c>
+      <c r="F64" s="21">
+        <v>1.262</v>
+      </c>
+      <c r="G64" s="16">
+        <v>1.175</v>
+      </c>
+      <c r="H64" s="17">
+        <v>1.242</v>
+      </c>
+      <c r="I64" s="13">
+        <v>1.099</v>
       </c>
       <c r="J64" s="13">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="K64" s="10">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="L64" s="12">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="M64" s="31">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="N64" s="12">
-        <v>0.80100000000000005</v>
+        <v>1.095</v>
+      </c>
+      <c r="K64" s="12">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L64" s="11">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="N64" s="22">
+        <v>0.77</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
@@ -2385,7 +2385,6 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/raw-data/JRL_block1_30_32_4.xlsx
+++ b/raw-data/JRL_block1_30_32_4.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">-1807967984</definedName>
-    <definedName name="MethodPointer2">552</definedName>
+    <definedName name="MethodPointer1">1394061648</definedName>
+    <definedName name="MethodPointer2">572</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_32_5.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_32_4.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -529,7 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9E0F4"/>
+        <fgColor rgb="FFBAD7EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF428EC7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,19 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBAD7EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9CC5E5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF428EC7"/>
+        <fgColor rgb="FFC9E0F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,58 +696,58 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45766</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.61153935185185182</v>
+        <v>0.50055555555555553</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1689,40 +1689,40 @@
         <v>38</v>
       </c>
       <c r="C49" s="9">
+        <v>10</v>
+      </c>
+      <c r="D49" s="9">
+        <v>11</v>
+      </c>
+      <c r="E49" s="9">
+        <v>14</v>
+      </c>
+      <c r="F49" s="9">
         <v>12</v>
       </c>
-      <c r="D49" s="9">
-        <v>9</v>
-      </c>
-      <c r="E49" s="9">
-        <v>13</v>
-      </c>
-      <c r="F49" s="9">
-        <v>10</v>
-      </c>
       <c r="G49" s="9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H49" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9">
         <v>11</v>
       </c>
       <c r="J49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K49" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L49" s="9">
+        <v>14</v>
+      </c>
+      <c r="M49" s="9">
+        <v>17</v>
+      </c>
+      <c r="N49" s="9">
         <v>15</v>
-      </c>
-      <c r="M49" s="9">
-        <v>12</v>
-      </c>
-      <c r="N49" s="9">
-        <v>13</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
@@ -1731,40 +1731,40 @@
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="33"/>
       <c r="C50" s="10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D50" s="11">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="E50" s="10">
         <v>0.94799999999999995</v>
       </c>
-      <c r="D50" s="11">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="E50" s="12">
+      <c r="F50" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H50" s="13">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="I50" s="10">
         <v>0.96499999999999997</v>
       </c>
-      <c r="F50" s="11">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="G50" s="12">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="H50" s="13">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="I50" s="12">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="J50" s="11">
-        <v>0.83299999999999996</v>
+      <c r="J50" s="12">
+        <v>0.82399999999999995</v>
       </c>
       <c r="K50" s="10">
-        <v>0.94599999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="L50" s="10">
-        <v>0.92</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="M50" s="10">
-        <v>0.93600000000000005</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="N50" s="13">
-        <v>1.087</v>
+        <v>1.101</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
@@ -1775,40 +1775,40 @@
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E51" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F51" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G51" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H51" s="9">
-        <v>23</v>
-      </c>
-      <c r="I51" s="9">
-        <v>216</v>
+        <v>24</v>
+      </c>
+      <c r="I51" s="14">
+        <v>357</v>
       </c>
       <c r="J51" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K51" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L51" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M51" s="9">
         <v>13</v>
       </c>
       <c r="N51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>145</v>
@@ -1816,41 +1816,41 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="33"/>
-      <c r="C52" s="14">
-        <v>1.47</v>
+      <c r="C52" s="11">
+        <v>1.46</v>
       </c>
       <c r="D52" s="13">
+        <v>1.113</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1.073</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1.097</v>
+      </c>
+      <c r="I52" s="13">
+        <v>1.077</v>
+      </c>
+      <c r="J52" s="16">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="K52" s="17">
+        <v>1.194</v>
+      </c>
+      <c r="L52" s="16">
         <v>1.121</v>
       </c>
-      <c r="E52" s="13">
-        <v>1.085</v>
-      </c>
-      <c r="F52" s="12">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="G52" s="15">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="H52" s="13">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="I52" s="15">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="J52" s="16">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="K52" s="17">
-        <v>1.19</v>
-      </c>
-      <c r="L52" s="16">
-        <v>1.151</v>
-      </c>
       <c r="M52" s="13">
-        <v>1.083</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="N52" s="18">
-        <v>1.32</v>
+        <v>1.353</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
@@ -1861,40 +1861,40 @@
         <v>65</v>
       </c>
       <c r="C53" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="9">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E53" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F53" s="19">
-        <v>2632</v>
-      </c>
-      <c r="G53" s="20">
-        <v>3259</v>
+        <v>1787</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1702</v>
       </c>
       <c r="H53" s="9">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J53" s="9">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K53" s="9">
-        <v>62</v>
-      </c>
-      <c r="L53" s="19">
-        <v>2717</v>
+        <v>61</v>
+      </c>
+      <c r="L53" s="20">
+        <v>1271</v>
       </c>
       <c r="M53" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N53" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>145</v>
@@ -1903,40 +1903,40 @@
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="33"/>
       <c r="C54" s="21">
-        <v>1.2949999999999999</v>
+        <v>1.282</v>
       </c>
       <c r="D54" s="15">
-        <v>1.0569999999999999</v>
+        <v>1.036</v>
       </c>
       <c r="E54" s="22">
-        <v>0.78</v>
-      </c>
-      <c r="F54" s="14">
-        <v>1.4450000000000001</v>
-      </c>
-      <c r="G54" s="14">
-        <v>1.4530000000000001</v>
-      </c>
-      <c r="H54" s="16">
-        <v>1.1359999999999999</v>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="F54" s="21">
+        <v>1.272</v>
+      </c>
+      <c r="G54" s="21">
+        <v>1.252</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1.1160000000000001</v>
       </c>
       <c r="I54" s="17">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="J54" s="12">
-        <v>0.98199999999999998</v>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="J54" s="15">
+        <v>0.996</v>
       </c>
       <c r="K54" s="16">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="L54" s="16">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="M54" s="12">
-        <v>0.96799999999999997</v>
+        <v>1.175</v>
+      </c>
+      <c r="L54" s="15">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="M54" s="10">
+        <v>0.95099999999999996</v>
       </c>
       <c r="N54" s="23">
-        <v>1.5009999999999999</v>
+        <v>1.5580000000000001</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
@@ -1947,40 +1947,40 @@
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D55" s="24">
-        <v>516</v>
+        <v>153</v>
       </c>
       <c r="E55" s="9">
-        <v>11</v>
-      </c>
-      <c r="F55" s="25">
-        <v>267</v>
+        <v>12</v>
+      </c>
+      <c r="F55" s="14">
+        <v>286</v>
       </c>
       <c r="G55" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H55" s="9">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="I55" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J55" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K55" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L55" s="9">
         <v>12</v>
       </c>
-      <c r="M55" s="26">
-        <v>1238</v>
+      <c r="M55" s="25">
+        <v>410</v>
       </c>
       <c r="N55" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
@@ -1988,41 +1988,41 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="33"/>
-      <c r="C56" s="27">
-        <v>1.397</v>
-      </c>
-      <c r="D56" s="17">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="E56" s="17">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="F56" s="27">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="G56" s="16">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="H56" s="18">
-        <v>1.3220000000000001</v>
+      <c r="C56" s="26">
+        <v>1.409</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1.139</v>
+      </c>
+      <c r="F56" s="21">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="H56" s="17">
+        <v>1.1859999999999999</v>
       </c>
       <c r="I56" s="16">
-        <v>1.165</v>
-      </c>
-      <c r="J56" s="17">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="K56" s="12">
-        <v>1.0049999999999999</v>
+        <v>1.159</v>
+      </c>
+      <c r="J56" s="16">
+        <v>1.147</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0.98699999999999999</v>
       </c>
       <c r="L56" s="13">
-        <v>1.093</v>
-      </c>
-      <c r="M56" s="16">
-        <v>1.147</v>
-      </c>
-      <c r="N56" s="28">
-        <v>1.589</v>
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="M56" s="13">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="N56" s="27">
+        <v>1.6180000000000001</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
@@ -2033,40 +2033,40 @@
         <v>91</v>
       </c>
       <c r="C57" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D57" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E57" s="9">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="F57" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G57" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H57" s="9">
-        <v>10</v>
-      </c>
-      <c r="I57" s="24">
-        <v>484</v>
-      </c>
-      <c r="J57" s="20">
-        <v>3063</v>
+        <v>11</v>
+      </c>
+      <c r="I57" s="28">
+        <v>579</v>
+      </c>
+      <c r="J57" s="19">
+        <v>1794</v>
       </c>
       <c r="K57" s="9">
-        <v>21</v>
-      </c>
-      <c r="L57" s="29">
-        <v>1514</v>
+        <v>22</v>
+      </c>
+      <c r="L57" s="14">
+        <v>382</v>
       </c>
       <c r="M57" s="29">
-        <v>1613</v>
+        <v>753</v>
       </c>
       <c r="N57" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
@@ -2075,40 +2075,40 @@
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="33"/>
       <c r="C58" s="21">
-        <v>1.274</v>
-      </c>
-      <c r="D58" s="21">
-        <v>1.256</v>
-      </c>
-      <c r="E58" s="27">
-        <v>1.3939999999999999</v>
-      </c>
-      <c r="F58" s="23">
-        <v>1.532</v>
-      </c>
-      <c r="G58" s="23">
-        <v>1.492</v>
-      </c>
-      <c r="H58" s="18">
-        <v>1.3440000000000001</v>
-      </c>
-      <c r="I58" s="14">
-        <v>1.4490000000000001</v>
-      </c>
-      <c r="J58" s="14">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="K58" s="21">
-        <v>1.254</v>
-      </c>
-      <c r="L58" s="12">
-        <v>0.99</v>
-      </c>
-      <c r="M58" s="16">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="N58" s="28">
-        <v>1.603</v>
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="D58" s="16">
+        <v>1.123</v>
+      </c>
+      <c r="E58" s="17">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="F58" s="17">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="G58" s="16">
+        <v>1.151</v>
+      </c>
+      <c r="H58" s="17">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="I58" s="18">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="J58" s="16">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K58" s="17">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="L58" s="10">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M58" s="13">
+        <v>1.081</v>
+      </c>
+      <c r="N58" s="27">
+        <v>1.631</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
@@ -2119,40 +2119,40 @@
         <v>104</v>
       </c>
       <c r="C59" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D59" s="30">
-        <v>1857</v>
+        <v>1410</v>
       </c>
       <c r="E59" s="9">
         <v>9</v>
       </c>
       <c r="F59" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H59" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J59" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K59" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L59" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M59" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N59" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
@@ -2161,40 +2161,40 @@
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="33"/>
       <c r="C60" s="17">
-        <v>1.214</v>
-      </c>
-      <c r="D60" s="17">
-        <v>1.202</v>
-      </c>
-      <c r="E60" s="18">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="F60" s="27">
-        <v>1.391</v>
-      </c>
-      <c r="G60" s="14">
-        <v>1.464</v>
-      </c>
-      <c r="H60" s="14">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="I60" s="14">
-        <v>1.454</v>
-      </c>
-      <c r="J60" s="17">
-        <v>1.2430000000000001</v>
+        <v>1.224</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1.071</v>
+      </c>
+      <c r="E60" s="16">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F60" s="16">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="G60" s="21">
+        <v>1.294</v>
+      </c>
+      <c r="H60" s="15">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="I60" s="17">
+        <v>1.212</v>
+      </c>
+      <c r="J60" s="16">
+        <v>1.167</v>
       </c>
       <c r="K60" s="15">
-        <v>1.036</v>
+        <v>0.998</v>
       </c>
       <c r="L60" s="10">
-        <v>0.94</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="M60" s="10">
-        <v>0.94299999999999995</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="N60" s="23">
-        <v>1.536</v>
+        <v>1.528</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
@@ -2208,37 +2208,37 @@
         <v>12</v>
       </c>
       <c r="D61" s="9">
-        <v>27</v>
-      </c>
-      <c r="E61" s="31">
-        <v>2195</v>
+        <v>40</v>
+      </c>
+      <c r="E61" s="20">
+        <v>1253</v>
       </c>
       <c r="F61" s="9">
+        <v>18</v>
+      </c>
+      <c r="G61" s="9">
         <v>11</v>
       </c>
-      <c r="G61" s="9">
-        <v>10</v>
-      </c>
-      <c r="H61" s="24">
-        <v>593</v>
+      <c r="H61" s="29">
+        <v>698</v>
       </c>
       <c r="I61" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J61" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K61" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L61" s="9">
         <v>11</v>
       </c>
       <c r="M61" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N61" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
@@ -2246,41 +2246,41 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="33"/>
-      <c r="C62" s="27">
-        <v>1.377</v>
-      </c>
-      <c r="D62" s="17">
-        <v>1.19</v>
-      </c>
-      <c r="E62" s="23">
-        <v>1.518</v>
-      </c>
-      <c r="F62" s="18">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="G62" s="21">
-        <v>1.304</v>
-      </c>
-      <c r="H62" s="14">
-        <v>1.44</v>
-      </c>
-      <c r="I62" s="17">
-        <v>1.238</v>
-      </c>
-      <c r="J62" s="12">
-        <v>0.97899999999999998</v>
+      <c r="C62" s="26">
+        <v>1.38</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="E62" s="17">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="F62" s="16">
+        <v>1.153</v>
+      </c>
+      <c r="G62" s="16">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="H62" s="17">
+        <v>1.202</v>
+      </c>
+      <c r="I62" s="15">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="J62" s="31">
+        <v>0.92300000000000004</v>
       </c>
       <c r="K62" s="16">
-        <v>1.137</v>
-      </c>
-      <c r="L62" s="10">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="M62" s="12">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N62" s="17">
-        <v>1.19</v>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="L62" s="31">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="M62" s="15">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N62" s="16">
+        <v>1.173</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
@@ -2291,40 +2291,40 @@
         <v>130</v>
       </c>
       <c r="C63" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E63" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F63" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G63" s="9">
         <v>11</v>
       </c>
       <c r="H63" s="9">
+        <v>13</v>
+      </c>
+      <c r="I63" s="9">
+        <v>14</v>
+      </c>
+      <c r="J63" s="9">
+        <v>15</v>
+      </c>
+      <c r="K63" s="9">
         <v>10</v>
-      </c>
-      <c r="I63" s="9">
-        <v>10</v>
-      </c>
-      <c r="J63" s="9">
-        <v>8</v>
-      </c>
-      <c r="K63" s="9">
-        <v>9</v>
       </c>
       <c r="L63" s="9">
         <v>11</v>
       </c>
       <c r="M63" s="9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N63" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
@@ -2332,41 +2332,41 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
-      <c r="C64" s="12">
-        <v>0.997</v>
+      <c r="C64" s="15">
+        <v>1.0029999999999999</v>
       </c>
       <c r="D64" s="15">
-        <v>1.0580000000000001</v>
-      </c>
-      <c r="E64" s="16">
-        <v>1.167</v>
-      </c>
-      <c r="F64" s="21">
-        <v>1.262</v>
-      </c>
-      <c r="G64" s="16">
-        <v>1.175</v>
-      </c>
-      <c r="H64" s="17">
-        <v>1.242</v>
-      </c>
-      <c r="I64" s="13">
-        <v>1.099</v>
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="E64" s="15">
+        <v>1.018</v>
+      </c>
+      <c r="F64" s="13">
+        <v>1.085</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="H64" s="13">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="I64" s="15">
+        <v>1.034</v>
       </c>
       <c r="J64" s="13">
-        <v>1.095</v>
-      </c>
-      <c r="K64" s="12">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="L64" s="11">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="M64" s="11">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="N64" s="22">
-        <v>0.77</v>
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="K64" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="L64" s="12">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M64" s="31">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="N64" s="12">
+        <v>0.80100000000000005</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
@@ -2385,6 +2385,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>